--- a/src/digitalmodel/tests/test_data/orcaflex_post_process/results/orcaflex_post_process_summary.xlsx
+++ b/src/digitalmodel/tests/test_data/orcaflex_post_process/results/orcaflex_post_process_summary.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.\orcaflex_test1.sim</t>
+          <t>k:\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.\orcaflex_test1.sim</t>
+          <t>k:\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,10 +499,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>582.8916625976562</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60.61454391479839</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7723970872905513</v>
+      </c>
+      <c r="I2" t="n">
+        <v>229768.3723184217</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>.\orcaflex_test2.sim</t>
+          <t>k:\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +528,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.\orcaflex_test2.sim</t>
+          <t>k:\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -528,10 +536,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>582.8916625976562</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60.61454391479839</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7723970872905513</v>
+      </c>
+      <c r="I3" t="n">
+        <v>229768.3723184217</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -549,10 +565,18 @@
           <t>Mean</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>582.8916625976562</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60.61454391479839</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7723970872905513</v>
+      </c>
+      <c r="I4" t="n">
+        <v>229768.3723184217</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,10 +594,18 @@
           <t>Minimum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>582.8916625976562</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60.61454391479839</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7723970872905513</v>
+      </c>
+      <c r="I5" t="n">
+        <v>229768.3723184217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,10 +623,18 @@
           <t>Maximum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>582.8916625976562</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60.61454391479839</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7723970872905513</v>
+      </c>
+      <c r="I6" t="n">
+        <v>229768.3723184217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
